--- a/AppiumData.xlsx
+++ b/AppiumData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -30,9 +30,6 @@
     <t>TC01</t>
   </si>
   <si>
-    <t>MS@kavi1989</t>
-  </si>
-  <si>
     <t>SavingsBalance</t>
   </si>
   <si>
@@ -43,18 +40,6 @@
   </si>
   <si>
     <t>SavingsAccNum</t>
-  </si>
-  <si>
-    <t>06842470005256</t>
-  </si>
-  <si>
-    <t>Rs. 3,516.21</t>
-  </si>
-  <si>
-    <t>Rs. 241.97</t>
-  </si>
-  <si>
-    <t>06841610007474</t>
   </si>
   <si>
     <t>TC02</t>
@@ -399,7 +384,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,51 +409,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>38966565</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>38966565</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AppiumData.xlsx
+++ b/AppiumData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -43,14 +43,55 @@
   </si>
   <si>
     <t>TC02</t>
+  </si>
+  <si>
+    <t>Cust ID Number</t>
+  </si>
+  <si>
+    <t>Savings Account Number</t>
+  </si>
+  <si>
+    <t>Savings Balance</t>
+  </si>
+  <si>
+    <t>Current Account Number</t>
+  </si>
+  <si>
+    <t>Current Account Balance</t>
+  </si>
+  <si>
+    <t>BeneficiaryType</t>
+  </si>
+  <si>
+    <t>BeneficiaryAccounts</t>
+  </si>
+  <si>
+    <t>BeneficiaryName</t>
+  </si>
+  <si>
+    <t>Enter the Beneficiary type</t>
+  </si>
+  <si>
+    <t>Beneficiary Account Number</t>
+  </si>
+  <si>
+    <t>Beneficiary Account Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,25 +115,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -171,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -205,6 +268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,60 +444,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -442,24 +554,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
